--- a/biology/Histoire de la zoologie et de la botanique/Pav/Pav..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pav/Pav..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Antonio Pavón ou José Antonio Pavón y Jiménez (22 avril 1754 à Casatejada, Cáceres, Espagne - 13 mars 1840) est un botaniste espagnol connu pour ses travaux sur la flore du Pérou et du Chili, effectués lors d'une expédition entre 1777 et 1788.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous le règne de Charles III (1716-1788), trois grandes expéditions botaniques eurent lieu vers le Nouveau Monde ; Pavón et Hipólito Ruiz López (1754-1815) furent les botanistes présents lors de la première de ces expéditions, entre le Pérou et le Chili.
 </t>
@@ -542,7 +556,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un genre de malvacées porte son nom, Pavonia.
 </t>
